--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_021.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_021.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295037EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Maintaining heat sinks external to the containment</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295031EK2.10) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Redundant reactivity control</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
-  </si>
-  <si>
-    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
-  </si>
-  <si>
-    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
-  </si>
-  <si>
-    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
-  </si>
-  <si>
-    <t>(295001AK2.04) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295006AA1.03) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
+  </si>
+  <si>
+    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295031EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Alternate injection systems</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
+  </si>
+  <si>
+    <t>(295030EK2.05) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
   </si>
   <si>
-    <t>(295021AA2.02) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) RHR/shutdown cooling system flow</t>
-  </si>
-  <si>
-    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment/auxiliary building isolation</t>
-  </si>
-  <si>
-    <t>(295023AA1.10) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Alternate fuel pool makeup systems</t>
-  </si>
-  <si>
-    <t>(295010AA2.01) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Leak rates</t>
-  </si>
-  <si>
-    <t>(295002AK2.14) Knowledge of the relationship between the (APE 2) LOSS OF MAIN CONDENSER VACUUM and the following systems or components: (CFR: 41.7 / 45.8) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295022AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295012AA1.03) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295029EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Venting the suppression pool (Mark I containment)</t>
-  </si>
-  <si>
-    <t>(239002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t>(215003A2.02) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) IRM inoperable condition</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(217000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(300000K6.16) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Backwashing condensate filter/demins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) LPRM, APRM, or OPRM channel bypass status </t>
-  </si>
-  <si>
-    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
-  </si>
-  <si>
-    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
-  </si>
-  <si>
-    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
-  </si>
-  <si>
-    <t>(262001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Offsite power system</t>
-  </si>
-  <si>
-    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(264000K4.06) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Governor control</t>
-  </si>
-  <si>
-    <t>(259002K3.01) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Reactor water level</t>
+    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
+  </si>
+  <si>
+    <t>(600000AK2.05) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Fire alarm panels</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295037EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
+  </si>
+  <si>
+    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295012AA2.01) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295008AA1.08) Ability to operate and/or monitor the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295032EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Impact of operating environment on components</t>
+  </si>
+  <si>
+    <t>(295020AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Drywell/containment pressure response</t>
+  </si>
+  <si>
+    <t>(205000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump flow</t>
+  </si>
+  <si>
+    <t>(203000A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(510000K4.07) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Discharge strainer backwashing</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002K3.10) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment isolation system/nuclear steam supply shutoff</t>
+  </si>
+  <si>
+    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
+  </si>
+  <si>
+    <t>(223002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(261000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Primary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
+  </si>
+  <si>
+    <t>(211000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(400000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW flow rate</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(259002K4.02) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing of the RWMS</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291008K1.11) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Control room indication of a breaker status</t>
+  </si>
+  <si>
+    <t>(212000K3.06) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) SCRAM air header solenoid-operated valves</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(215003K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Detector drive motor</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
   </si>
   <si>
     <t>(215004A4.08) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS channel bypass</t>
   </si>
   <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (291008K1.12) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Trip indicators for circuit breakers and protective relays</t>
-  </si>
-  <si>
-    <t>(209002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal suppression pool water level</t>
-  </si>
-  <si>
-    <t>(261000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Primary containment oxygen level (Mark I and II)</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
-  </si>
-  <si>
-    <t>(239002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Drywell instrument air/drywell pneumatics</t>
-  </si>
-  <si>
-    <t>(215003A2.01) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Power supply degradation</t>
-  </si>
-  <si>
-    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(217000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(290002K3.24) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Source range monitor system</t>
-  </si>
-  <si>
-    <t>(239003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.4) Radiation release</t>
-  </si>
-  <si>
-    <t>(202002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(201003A2.07) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Abnormal CRD drive water flow</t>
-  </si>
-  <si>
-    <t>(290003K4.03) Knowledge of (SF9 CRV) CONTROL ROOM VENTILATION design features and/or interlocks that provide for the following: (CFR: 41.7) Differential pressure control</t>
-  </si>
-  <si>
-    <t>(239001K3.04) Knowledge of the effect that a loss or malfunction of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Offgas system</t>
-  </si>
-  <si>
-    <t>(201005A4.02) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Rod display module (lights and push buttons)</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(202001K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Feedwater flow</t>
-  </si>
-  <si>
-    <t>(223001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) Oxygen concentration</t>
-  </si>
-  <si>
-    <t>(204000K2.02) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
-  </si>
-  <si>
-    <t>(293007K1.03) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Explain the manner in which fluid films affects heat</t>
-  </si>
-  <si>
-    <t>(293008K1.21) THERMAL HYDRAULICS (CFR: 41.14) (VIODS AND VOID FRACTION) Define void fraction</t>
-  </si>
-  <si>
-    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AA2.18) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Assessment of control room habitability (SRO Only)</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+    <t>(215005K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(205000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(203000A2.07) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump seal failure</t>
+  </si>
+  <si>
+    <t>(510000K4.06) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate discharge pathway</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202001A4.14) Ability to manually operate and/or monitor the (SF1, SF4 RS) RECIRCULATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Variable frequency drives</t>
+  </si>
+  <si>
+    <t>(219000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCI/RHR system</t>
+  </si>
+  <si>
+    <t>(272000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.5 / 45.5) Sample flows</t>
+  </si>
+  <si>
+    <t>(223001A2.06) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High containment pressure (Mark III)</t>
+  </si>
+  <si>
+    <t>(201005K4.07) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) RPIS</t>
+  </si>
+  <si>
+    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (291006K1.09) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Definition of thermal shock</t>
+  </si>
+  <si>
+    <t>(286000K3.09) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution systems</t>
+  </si>
+  <si>
+    <t>(239003A3.03) Ability to monitor automatic operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.7 / 45.7) Dilution air flows</t>
+  </si>
+  <si>
+    <t>(510001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(215001K2.01) (SF7 TIP) TRAVERSING IN CORE PROBE Knowledge of electrical power supplies to the following: (CFR: 41.7) Shear valves (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(226001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Pressure suppression pressure</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
+  </si>
+  <si>
+    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
+  </si>
+  <si>
+    <t>(292004K1.02) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of the temperature coefficient of reactivity from changes in moderator temperature and core age</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(293009K1.32) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) List the causes of pellet-clad interaction</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(295024EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
   </si>
   <si>
     <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
   </si>
   <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011AA2.02) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(205000A2.12) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(215001A2.01) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor water level (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223002A2.04) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Process radiation monitoring system failures</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(261000A2.15) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High area radiation by refuel bridge</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(234000K4.08) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Preventing draining of water from the inclined fuel transfer system</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
     <t>295023</t>
   </si>
   <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
     <t>295010</t>
   </si>
   <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295029</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215003</t>
   </si>
   <si>
     <t>239002</t>
   </si>
   <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>300000</t>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215004</t>
   </si>
   <si>
     <t>215005</t>
   </si>
   <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>290002</t>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>286000</t>
   </si>
   <si>
     <t>239003</t>
   </si>
   <si>
-    <t>202002</t>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
   <si>
     <t>201003</t>
   </si>
   <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>216000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
         <v>105</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="s">
         <v>113</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1599,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>111</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D45" t="s">
         <v>113</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1820,7 +1820,7 @@
         <v>3.1</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
         <v>111</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D53" t="s">
         <v>105</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D58" t="s">
         <v>111</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="s">
         <v>113</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2364,7 +2364,7 @@
         <v>3.6</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>3.6</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
